--- a/src/main/resources/static/xls/plantilla_carga_completa.xlsx
+++ b/src/main/resources/static/xls/plantilla_carga_completa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usmcl-my.sharepoint.com/personal/jacob_vega_usm_cl/Documents/Proyectos/Entrevistas/Desarrollo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookair11/Documents/ProyectosSpringBoot/SA-entrevistas/entrevistas-sa/src/main/resources/static/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="13_ncr:1_{FBA3A7FB-7491-984A-9443-F7B8C16E2485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94DA1A8A-5FBB-F74C-B606-F6650C4F1568}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2004D2B-EF71-4342-B5C4-7DA88EE129F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Postulantes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="156">
   <si>
     <t>Postulante ID</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Fecha ingreso</t>
   </si>
   <si>
-    <t>Reclutador</t>
-  </si>
-  <si>
     <t>Run</t>
   </si>
   <si>
@@ -286,15 +283,6 @@
     <t>CONYUGE</t>
   </si>
   <si>
-    <t>RECLUTADOR 1</t>
-  </si>
-  <si>
-    <t>RECLUTADOR 2</t>
-  </si>
-  <si>
-    <t>RECLUTADOR 3</t>
-  </si>
-  <si>
     <t>11.111.111-1</t>
   </si>
   <si>
@@ -494,6 +482,12 @@
   </si>
   <si>
     <t>ENTREVISTADOR 3</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>login</t>
   </si>
 </sst>
 </file>
@@ -584,9 +578,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -624,7 +618,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -730,7 +724,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -872,7 +866,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -882,7 +876,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -905,148 +901,148 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:50" ht="19" x14ac:dyDescent="0.25">
@@ -1057,82 +1053,82 @@
         <v>44562</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N2" s="2">
         <v>44655</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T2" s="1">
         <v>7</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V2" s="2">
         <v>44749</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="AB2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC2" s="2">
         <v>29221</v>
@@ -1141,64 +1137,64 @@
         <v>0</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AG2" s="1">
         <v>11</v>
       </c>
       <c r="AH2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AI2" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="AJ2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AN2" s="1">
         <v>42</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AS2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AT2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="AV2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:50" ht="19" x14ac:dyDescent="0.25">
@@ -1209,82 +1205,82 @@
         <v>44594</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="J3" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N3" s="2">
         <v>44686</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="T3" s="1">
         <v>30</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V3" s="2">
         <v>44781</v>
       </c>
       <c r="W3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="AB3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AC3" s="2">
         <v>29619</v>
@@ -1293,64 +1289,64 @@
         <v>0</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AN3" s="1">
         <v>41</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AS3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AT3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="AV3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:50" ht="19" x14ac:dyDescent="0.25">
@@ -1361,82 +1357,82 @@
         <v>44623</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N4" s="2">
         <v>44718</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T4" s="1">
         <v>15</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V4" s="2">
         <v>44813</v>
       </c>
       <c r="W4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="AB4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC4" s="2">
         <v>30378</v>
@@ -1445,64 +1441,64 @@
         <v>0</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AN4" s="1">
         <v>40</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AS4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU4" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AT4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="AV4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
